--- a/ExperimentResults.xlsx
+++ b/ExperimentResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micky\Documents\GitHub\CS585_TestCasePrioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76517C45-143D-41D1-B1F1-A9DC15550704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10996DE2-5C0E-4C2F-A0DD-D18F5B6FFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A3155C92-6CD3-41BE-81D8-782F08E4B71C}"/>
   </bookViews>
@@ -1448,6 +1448,657 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Detect 98% of Failing Tests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sort Size 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeRun!$C$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Original Order</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smallest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fail Ratio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Recent Fail</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oldest Run</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Combination</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeRun!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.231000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAFA-4D02-AE39-02B13F240063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sort Size 500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeRun!$C$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Original Order</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smallest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fail Ratio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Recent Fail</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oldest Run</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Combination</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeRun!$C$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAFA-4D02-AE39-02B13F240063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sort Size 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeRun!$C$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Original Order</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smallest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fail Ratio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Recent Fail</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oldest Run</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Combination</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeRun!$C$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.054000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.655999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAFA-4D02-AE39-02B13F240063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sort Size 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeRun!$C$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Original Order</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smallest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fail Ratio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Recent Fail</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oldest Run</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Combination</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeRun!$C$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.634999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BAFA-4D02-AE39-02B13F240063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="436616752"/>
+        <c:axId val="436615440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="436616752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436615440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436615440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436616752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1528,6 +2179,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2534,20 +3225,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2603,6 +3797,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30DDD5E-B322-428D-9ED1-1C09B36D6404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3426,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0323ECE7-2CED-4E1C-A7ED-2D0DB2A9C2F5}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3940,7 +5170,7 @@
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3960,7 +5190,7 @@
       <c r="E20">
         <v>106.515</v>
       </c>
-      <c r="J20" t="s">
+      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3980,7 +5210,7 @@
       <c r="E21">
         <v>115.26900000000001</v>
       </c>
-      <c r="J21" t="s">
+      <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4000,7 +5230,7 @@
       <c r="E22">
         <v>113.25700000000001</v>
       </c>
-      <c r="J22" t="s">
+      <c r="F22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4020,7 +5250,7 @@
       <c r="E23">
         <v>109.834</v>
       </c>
-      <c r="J23" t="s">
+      <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4040,7 +5270,7 @@
       <c r="E25">
         <v>110.309</v>
       </c>
-      <c r="J25" t="s">
+      <c r="F25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4060,7 +5290,7 @@
       <c r="E26">
         <v>115.919</v>
       </c>
-      <c r="J26" t="s">
+      <c r="F26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4080,7 +5310,7 @@
       <c r="E27">
         <v>119.77800000000001</v>
       </c>
-      <c r="J27" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4100,7 +5330,7 @@
       <c r="E28">
         <v>120.246</v>
       </c>
-      <c r="J28" t="s">
+      <c r="F28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4120,7 +5350,7 @@
       <c r="E30">
         <v>121.265</v>
       </c>
-      <c r="J30" t="s">
+      <c r="F30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4140,7 +5370,7 @@
       <c r="E31">
         <v>122.187</v>
       </c>
-      <c r="J31" t="s">
+      <c r="F31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4160,11 +5390,11 @@
       <c r="E32">
         <v>120.187</v>
       </c>
-      <c r="J32" t="s">
+      <c r="F32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>50</v>
       </c>
@@ -4180,7 +5410,7 @@
       <c r="E33">
         <v>123.005</v>
       </c>
-      <c r="J33" t="s">
+      <c r="F33" t="s">
         <v>10</v>
       </c>
     </row>
